--- a/Code/Results/Cases/Case_6_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_41/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.590704759707819</v>
+        <v>2.586056266532012</v>
       </c>
       <c r="C2">
-        <v>0.3690427786220596</v>
+        <v>0.4048736721508135</v>
       </c>
       <c r="D2">
-        <v>0.006228752425425199</v>
+        <v>0.04936867478996732</v>
       </c>
       <c r="E2">
-        <v>0.02822172188436023</v>
+        <v>0.04428252000315158</v>
       </c>
       <c r="F2">
-        <v>2.802728767501094</v>
+        <v>0.8257147970531449</v>
       </c>
       <c r="G2">
-        <v>0.000847080420228761</v>
+        <v>0.0008194733792321951</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07877530497297958</v>
+        <v>0.07234001756131825</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1413584297778669</v>
+        <v>0.1823125291594323</v>
       </c>
       <c r="M2">
-        <v>0.4275366249034249</v>
+        <v>0.448616283310777</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.124391631161714</v>
+        <v>2.185867545468028</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.273181779734898</v>
+        <v>2.25113016610419</v>
       </c>
       <c r="C3">
-        <v>0.3199677433434545</v>
+        <v>0.3672954467751595</v>
       </c>
       <c r="D3">
-        <v>0.005255201557295308</v>
+        <v>0.04669776508154655</v>
       </c>
       <c r="E3">
-        <v>0.02818743519524336</v>
+        <v>0.04561278760036958</v>
       </c>
       <c r="F3">
-        <v>2.6497071704365</v>
+        <v>0.8155902390796754</v>
       </c>
       <c r="G3">
-        <v>0.0008554171571121261</v>
+        <v>0.0008241029987866577</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08003418777486893</v>
+        <v>0.07479472734311621</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1303252082913176</v>
+        <v>0.1652883771731553</v>
       </c>
       <c r="M3">
-        <v>0.3784136204187618</v>
+        <v>0.3924467491410795</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.004319492827335</v>
+        <v>2.168827825521646</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.08157425285043</v>
+        <v>2.046098475365682</v>
       </c>
       <c r="C4">
-        <v>0.2901215779726272</v>
+        <v>0.3442324910015486</v>
       </c>
       <c r="D4">
-        <v>0.004682522034023862</v>
+        <v>0.04508835318223348</v>
       </c>
       <c r="E4">
-        <v>0.02817262268977261</v>
+        <v>0.04647364121921083</v>
       </c>
       <c r="F4">
-        <v>2.560390467894422</v>
+        <v>0.811226515488876</v>
       </c>
       <c r="G4">
-        <v>0.000860680611621455</v>
+        <v>0.0008270394320290552</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08083450507336032</v>
+        <v>0.07637138204609428</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1237368344662002</v>
+        <v>0.1549475941228806</v>
       </c>
       <c r="M4">
-        <v>0.3488194586530611</v>
+        <v>0.3581038379216963</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.934213705387762</v>
+        <v>2.163820731290457</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.004242854513222</v>
+        <v>1.962667244409317</v>
       </c>
       <c r="C5">
-        <v>0.2780171158777591</v>
+        <v>0.3348336864800388</v>
       </c>
       <c r="D5">
-        <v>0.004454494643972851</v>
+        <v>0.04443984368848319</v>
       </c>
       <c r="E5">
-        <v>0.02816804490865965</v>
+        <v>0.0468354255394261</v>
       </c>
       <c r="F5">
-        <v>2.525071085987534</v>
+        <v>0.8098940876069989</v>
       </c>
       <c r="G5">
-        <v>0.0008628633108315576</v>
+        <v>0.0008282601039736455</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08116748436066779</v>
+        <v>0.07703116705056345</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1210954372121478</v>
+        <v>0.1507596875895345</v>
       </c>
       <c r="M5">
-        <v>0.3368878740679904</v>
+        <v>0.3441395110958538</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.906484056210289</v>
+        <v>2.163090705067759</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.991444771096951</v>
+        <v>1.94881990945629</v>
       </c>
       <c r="C6">
-        <v>0.2760103046845472</v>
+        <v>0.3332729097669045</v>
       </c>
       <c r="D6">
-        <v>0.004416927126815295</v>
+        <v>0.04433259290658143</v>
       </c>
       <c r="E6">
-        <v>0.0281673698396625</v>
+        <v>0.04689615980904804</v>
       </c>
       <c r="F6">
-        <v>2.51926896601816</v>
+        <v>0.8096991979989028</v>
       </c>
       <c r="G6">
-        <v>0.0008632280689547143</v>
+        <v>0.0008284642614368459</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08122318763902747</v>
+        <v>0.07714176279800711</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1206593641361948</v>
+        <v>0.1500658017850753</v>
       </c>
       <c r="M6">
-        <v>0.3349139906831553</v>
+        <v>0.3418224340966134</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.901928270019596</v>
+        <v>2.163046894777381</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.080528414323453</v>
+        <v>2.044972846172755</v>
       </c>
       <c r="C7">
-        <v>0.2899581152207418</v>
+        <v>0.3441057411601918</v>
       </c>
       <c r="D7">
-        <v>0.004679426348831228</v>
+        <v>0.04507957787514627</v>
       </c>
       <c r="E7">
-        <v>0.02817255518488404</v>
+        <v>0.04647847604361566</v>
       </c>
       <c r="F7">
-        <v>2.559909886305135</v>
+        <v>0.8112067665570351</v>
       </c>
       <c r="G7">
-        <v>0.000860709893438074</v>
+        <v>0.0008270557964313898</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08083896808501301</v>
+        <v>0.07638021037816323</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1237010401178935</v>
+        <v>0.1548910118314026</v>
       </c>
       <c r="M7">
-        <v>0.3486580439955418</v>
+        <v>0.357915393367719</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.933836426377042</v>
+        <v>2.16380565893985</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.480468580789591</v>
+        <v>2.470425243277248</v>
       </c>
       <c r="C8">
-        <v>0.3520536054233219</v>
+        <v>0.3919126707035616</v>
       </c>
       <c r="D8">
-        <v>0.005887257213432306</v>
+        <v>0.04844119482420695</v>
       </c>
       <c r="E8">
-        <v>0.02820853450732075</v>
+        <v>0.04473198918063881</v>
       </c>
       <c r="F8">
-        <v>2.748948506274473</v>
+        <v>0.8218268920313747</v>
       </c>
       <c r="G8">
-        <v>0.0008499257908337984</v>
+        <v>0.0008210504807057984</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07920366742524898</v>
+        <v>0.07317187598819341</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1375134388515278</v>
+        <v>0.1764179949498939</v>
       </c>
       <c r="M8">
-        <v>0.4104721407417884</v>
+        <v>0.4292151785899208</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.082195144184936</v>
+        <v>2.178822033431146</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.295996625910448</v>
+        <v>3.311277814192522</v>
       </c>
       <c r="C9">
-        <v>0.4767882176585658</v>
+        <v>0.4858959280107342</v>
       </c>
       <c r="D9">
-        <v>0.008503488695602357</v>
+        <v>0.05529243448423671</v>
       </c>
       <c r="E9">
-        <v>0.02833427121712728</v>
+        <v>0.04166141798095024</v>
       </c>
       <c r="F9">
-        <v>3.160857452134593</v>
+        <v>0.8583148776969338</v>
       </c>
       <c r="G9">
-        <v>0.0008298558765001337</v>
+        <v>0.0008099966011429881</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07621558961136277</v>
+        <v>0.06743985923599105</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1662443451258326</v>
+        <v>0.2196275062542981</v>
       </c>
       <c r="M9">
-        <v>0.5369146116175827</v>
+        <v>0.5704785513323145</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.405361624397457</v>
+        <v>2.254493554155431</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.921449094374566</v>
+        <v>3.935591715992302</v>
       </c>
       <c r="C10">
-        <v>0.5713281019979206</v>
+        <v>0.5553251477908816</v>
       </c>
       <c r="D10">
-        <v>0.01065357965122971</v>
+        <v>0.06050968680240487</v>
       </c>
       <c r="E10">
-        <v>0.02846942882732495</v>
+        <v>0.03962811586526627</v>
       </c>
       <c r="F10">
-        <v>3.495407152941311</v>
+        <v>0.8960956261616388</v>
       </c>
       <c r="G10">
-        <v>0.0008156594773381021</v>
+        <v>0.000802283215269028</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0741560576521394</v>
+        <v>0.06358197349308981</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1886180070967072</v>
+        <v>0.2521406182018637</v>
       </c>
       <c r="M10">
-        <v>0.6341219612218723</v>
+        <v>0.6755899606826645</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.667893363429116</v>
+        <v>2.34262915628301</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.213537601445807</v>
+        <v>4.221648724824888</v>
       </c>
       <c r="C11">
-        <v>0.6152461419744384</v>
+        <v>0.587050974769312</v>
       </c>
       <c r="D11">
-        <v>0.01170142835429999</v>
+        <v>0.06292927115585201</v>
       </c>
       <c r="E11">
-        <v>0.02854266301509711</v>
+        <v>0.03875301929119068</v>
       </c>
       <c r="F11">
-        <v>3.656262774197842</v>
+        <v>0.916007420020037</v>
       </c>
       <c r="G11">
-        <v>0.0008092931704329654</v>
+        <v>0.0007988550491771033</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07324925250195946</v>
+        <v>0.06190663382934858</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1991378747968184</v>
+        <v>0.2671370642592592</v>
       </c>
       <c r="M11">
-        <v>0.6795668860191313</v>
+        <v>0.7238035855576399</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.794163136737154</v>
+        <v>2.390836903067594</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.325407400703227</v>
+        <v>4.330321487220203</v>
       </c>
       <c r="C12">
-        <v>0.6320346237063461</v>
+        <v>0.5990903377146708</v>
       </c>
       <c r="D12">
-        <v>0.01211023657039334</v>
+        <v>0.06385270908646845</v>
       </c>
       <c r="E12">
-        <v>0.02857233045736507</v>
+        <v>0.038428955328349</v>
       </c>
       <c r="F12">
-        <v>3.71858545001183</v>
+        <v>0.9239702363680209</v>
       </c>
       <c r="G12">
-        <v>0.000806893045376926</v>
+        <v>0.0007975678152920475</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0729102625421536</v>
+        <v>0.06128395429931111</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2031769771922995</v>
+        <v>0.2728489130339824</v>
       </c>
       <c r="M12">
-        <v>0.6969790482520608</v>
+        <v>0.7421276442022133</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.84309423962452</v>
+        <v>2.410353555245109</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.301255094801888</v>
+        <v>4.306900427338576</v>
       </c>
       <c r="C13">
-        <v>0.6284114499896134</v>
+        <v>0.5964962271784771</v>
       </c>
       <c r="D13">
-        <v>0.01202162360347359</v>
+        <v>0.06365350107584788</v>
       </c>
       <c r="E13">
-        <v>0.02856585063505956</v>
+        <v>0.03849842049544971</v>
       </c>
       <c r="F13">
-        <v>3.705097604659784</v>
+        <v>0.9222359880468787</v>
       </c>
       <c r="G13">
-        <v>0.0008074095248978332</v>
+        <v>0.0007978445687778584</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07298307327667253</v>
+        <v>0.06141753279047357</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2023045094891245</v>
+        <v>0.2716172387488598</v>
       </c>
       <c r="M13">
-        <v>0.6932195257089333</v>
+        <v>0.7381781102777794</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.832504170578417</v>
+        <v>2.406092606790224</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.222714825865864</v>
+        <v>4.230581975627842</v>
       </c>
       <c r="C14">
-        <v>0.6166240156108813</v>
+        <v>0.5880409192675415</v>
       </c>
       <c r="D14">
-        <v>0.01173480817415395</v>
+        <v>0.0630050954853516</v>
       </c>
       <c r="E14">
-        <v>0.02854506344028662</v>
+        <v>0.03872621086032257</v>
       </c>
       <c r="F14">
-        <v>3.661360826629931</v>
+        <v>0.9166538703023264</v>
       </c>
       <c r="G14">
-        <v>0.0008090955126921282</v>
+        <v>0.0007987489324591589</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07322127501891718</v>
+        <v>0.06185516871229346</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.199469024028545</v>
+        <v>0.2676062993444219</v>
       </c>
       <c r="M14">
-        <v>0.6809951567690504</v>
+        <v>0.7253097255038838</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.798165560800697</v>
+        <v>2.392416700634413</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.174776556804773</v>
+        <v>4.183881869667971</v>
       </c>
       <c r="C15">
-        <v>0.6094252543728089</v>
+        <v>0.5828652745848331</v>
       </c>
       <c r="D15">
-        <v>0.01156075322465355</v>
+        <v>0.06260888216779392</v>
       </c>
       <c r="E15">
-        <v>0.02853259066956981</v>
+        <v>0.03886669629370543</v>
       </c>
       <c r="F15">
-        <v>3.634759633743386</v>
+        <v>0.9132906580135227</v>
       </c>
       <c r="G15">
-        <v>0.0008101295367198199</v>
+        <v>0.0007993042852650642</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07336775542464302</v>
+        <v>0.06212477043293596</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1977396288831983</v>
+        <v>0.2651538885330069</v>
       </c>
       <c r="M15">
-        <v>0.6735346937981177</v>
+        <v>0.7174364339529902</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.777281618707107</v>
+        <v>2.384207021867752</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.902527092689922</v>
+        <v>3.91694304562418</v>
       </c>
       <c r="C16">
-        <v>0.5684784925021518</v>
+        <v>0.5532550715136324</v>
       </c>
       <c r="D16">
-        <v>0.01058666684253851</v>
+        <v>0.06035253719930722</v>
       </c>
       <c r="E16">
-        <v>0.02846489936498886</v>
+        <v>0.03968632112338222</v>
       </c>
       <c r="F16">
-        <v>3.485082822256487</v>
+        <v>0.8948517581074071</v>
       </c>
       <c r="G16">
-        <v>0.0008160771663069643</v>
+        <v>0.0008025088219406275</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07421593077170385</v>
+        <v>0.06369308709158972</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1879379103255587</v>
+        <v>0.2511649952741948</v>
       </c>
       <c r="M16">
-        <v>0.6311789110487354</v>
+        <v>0.6724478789419877</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.659789910640228</v>
+        <v>2.339649867932735</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.737566287819391</v>
+        <v>3.753747638481343</v>
       </c>
       <c r="C17">
-        <v>0.5436102980569615</v>
+        <v>0.5351300250735278</v>
       </c>
       <c r="D17">
-        <v>0.01000828537168985</v>
+        <v>0.05898055781667466</v>
       </c>
       <c r="E17">
-        <v>0.02842654534435818</v>
+        <v>0.04020200652980987</v>
       </c>
       <c r="F17">
-        <v>3.395591301850004</v>
+        <v>0.8842592324166958</v>
       </c>
       <c r="G17">
-        <v>0.0008197476230396339</v>
+        <v>0.0008044949099338317</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0747440122941212</v>
+        <v>0.06467578979708932</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1820166988364775</v>
+        <v>0.242638367826018</v>
       </c>
       <c r="M17">
-        <v>0.605526933527166</v>
+        <v>0.644957213424604</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.589553800831126</v>
+        <v>2.314458808523653</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.643385841643408</v>
+        <v>3.660071758490119</v>
       </c>
       <c r="C18">
-        <v>0.529390771572082</v>
+        <v>0.5247180281051556</v>
       </c>
       <c r="D18">
-        <v>0.009682047990754228</v>
+        <v>0.058195747686554</v>
       </c>
       <c r="E18">
-        <v>0.02840557431524315</v>
+        <v>0.04050329921648643</v>
       </c>
       <c r="F18">
-        <v>3.344923052621425</v>
+        <v>0.8784212178346706</v>
       </c>
       <c r="G18">
-        <v>0.0008218675722954824</v>
+        <v>0.0008056448927249723</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07505057789953185</v>
+        <v>0.06524849148329714</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1786427451960435</v>
+        <v>0.2377532550005981</v>
       </c>
       <c r="M18">
-        <v>0.5908860794350019</v>
+        <v>0.6291821575885805</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.549791167580949</v>
+        <v>2.300727263813826</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.611613332963771</v>
+        <v>3.628385743010654</v>
       </c>
       <c r="C19">
-        <v>0.5245899548185378</v>
+        <v>0.5211947996433537</v>
       </c>
       <c r="D19">
-        <v>0.009572638589155247</v>
+        <v>0.05793074984617874</v>
       </c>
       <c r="E19">
-        <v>0.02839865408849362</v>
+        <v>0.04060611193484931</v>
       </c>
       <c r="F19">
-        <v>3.327901222984536</v>
+        <v>0.8764873816277117</v>
       </c>
       <c r="G19">
-        <v>0.0008225869343877283</v>
+        <v>0.0008060355884145351</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07515485928859356</v>
+        <v>0.06544367431379605</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1775056597710218</v>
+        <v>0.2361024346659093</v>
       </c>
       <c r="M19">
-        <v>0.5859476579768099</v>
+        <v>0.6238470497720172</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.536433588467062</v>
+        <v>2.296205368571691</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.755052939148129</v>
+        <v>3.771100048035521</v>
       </c>
       <c r="C20">
-        <v>0.5462486839429914</v>
+        <v>0.5370580814024493</v>
       </c>
       <c r="D20">
-        <v>0.01006917590170886</v>
+        <v>0.05912615684881217</v>
       </c>
       <c r="E20">
-        <v>0.02843051381195427</v>
+        <v>0.040146625124585</v>
       </c>
       <c r="F20">
-        <v>3.405033398330289</v>
+        <v>0.8853602669026372</v>
       </c>
       <c r="G20">
-        <v>0.0008193560033877699</v>
+        <v>0.0008042827016539342</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07468750403833013</v>
+        <v>0.06457040357593691</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1826436906580611</v>
+        <v>0.243544033364671</v>
       </c>
       <c r="M20">
-        <v>0.6082456996830317</v>
+        <v>0.6478797625266637</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.596963899461883</v>
+        <v>2.31706136033543</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.24574825512218</v>
+        <v>4.252988626446665</v>
       </c>
       <c r="C21">
-        <v>0.6200817622056434</v>
+        <v>0.5905237142278281</v>
       </c>
       <c r="D21">
-        <v>0.01181870964280307</v>
+        <v>0.06319534810860006</v>
       </c>
       <c r="E21">
-        <v>0.02855111446723058</v>
+        <v>0.03865910354378599</v>
       </c>
       <c r="F21">
-        <v>3.674167701815605</v>
+        <v>0.918281745745702</v>
       </c>
       <c r="G21">
-        <v>0.0008086000296756507</v>
+        <v>0.0007984830076199677</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07315118943076193</v>
+        <v>0.06172630356924103</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2003003158833394</v>
+        <v>0.2687834849604798</v>
       </c>
       <c r="M21">
-        <v>0.6845800045837365</v>
+        <v>0.7290875957530645</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.808220240023346</v>
+        <v>2.396398620257713</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.573900252726048</v>
+        <v>4.569994259915632</v>
       </c>
       <c r="C22">
-        <v>0.6692699486554829</v>
+        <v>0.625617782235679</v>
       </c>
       <c r="D22">
-        <v>0.01303327501055662</v>
+        <v>0.065897017832107</v>
       </c>
       <c r="E22">
-        <v>0.02864135802406709</v>
+        <v>0.03772964042172955</v>
       </c>
       <c r="F22">
-        <v>3.858373096969501</v>
+        <v>0.9422774224514114</v>
       </c>
       <c r="G22">
-        <v>0.0008016310971215842</v>
+        <v>0.0007947559849769598</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07217279144890387</v>
+        <v>0.05993606960639042</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2121666760502592</v>
+        <v>0.2854731648936735</v>
       </c>
       <c r="M22">
-        <v>0.7356680888766007</v>
+        <v>0.7825547593394759</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.952863606330297</v>
+        <v>2.45565204227637</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.398013943551177</v>
+        <v>4.400594576147796</v>
       </c>
       <c r="C23">
-        <v>0.6429220972215148</v>
+        <v>0.606871800702919</v>
       </c>
       <c r="D23">
-        <v>0.01237779702768904</v>
+        <v>0.06445103045333411</v>
       </c>
       <c r="E23">
-        <v>0.0285920561829941</v>
+        <v>0.03822175307800935</v>
       </c>
       <c r="F23">
-        <v>3.759239241608753</v>
+        <v>0.9292327903211515</v>
       </c>
       <c r="G23">
-        <v>0.0008053459086810835</v>
+        <v>0.0007967395972055881</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0726926056304027</v>
+        <v>0.06088517917985392</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2058011984956494</v>
+        <v>0.2765466039477644</v>
       </c>
       <c r="M23">
-        <v>0.7082818580496024</v>
+        <v>0.7539790485100895</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.875015262446681</v>
+        <v>2.423316866921084</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.747145188318768</v>
+        <v>3.763254568785555</v>
       </c>
       <c r="C24">
-        <v>0.5450556301625511</v>
+        <v>0.5361863815544723</v>
       </c>
       <c r="D24">
-        <v>0.01004162787240048</v>
+        <v>0.05906031923527166</v>
       </c>
       <c r="E24">
-        <v>0.02842871632426269</v>
+        <v>0.04017164806094486</v>
       </c>
       <c r="F24">
-        <v>3.400762204071981</v>
+        <v>0.8848617073044664</v>
       </c>
       <c r="G24">
-        <v>0.0008195330240776677</v>
+        <v>0.0008043786155508096</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07471304219235186</v>
+        <v>0.06461802462188615</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1823601339616587</v>
+        <v>0.2431345294044576</v>
       </c>
       <c r="M24">
-        <v>0.6070162148162979</v>
+        <v>0.6465583862877224</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.593611881656642</v>
+        <v>2.315882414118704</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.071329363948053</v>
+        <v>3.082852880405312</v>
       </c>
       <c r="C25">
-        <v>0.4426216182055782</v>
+        <v>0.460422620457166</v>
       </c>
       <c r="D25">
-        <v>0.007761854613516306</v>
+        <v>0.0534087187167529</v>
       </c>
       <c r="E25">
-        <v>0.02829348315790048</v>
+        <v>0.04245349458222636</v>
       </c>
       <c r="F25">
-        <v>3.04435480225456</v>
+        <v>0.8466259820700799</v>
       </c>
       <c r="G25">
-        <v>0.0008351804594820053</v>
+        <v>0.000812912861502881</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07700029067969982</v>
+        <v>0.06892940482875076</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1582703772435679</v>
+        <v>0.2078157985549751</v>
       </c>
       <c r="M25">
-        <v>0.5020403258353099</v>
+        <v>0.5320645357250768</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.313957492144908</v>
+        <v>2.228642000014986</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.586056266532012</v>
+        <v>2.598645831239821</v>
       </c>
       <c r="C2">
-        <v>0.4048736721508135</v>
+        <v>0.4928120583888074</v>
       </c>
       <c r="D2">
-        <v>0.04936867478996732</v>
+        <v>0.08036912480449132</v>
       </c>
       <c r="E2">
-        <v>0.04428252000315158</v>
+        <v>0.05048601424111743</v>
       </c>
       <c r="F2">
-        <v>0.8257147970531449</v>
+        <v>0.5124656685607931</v>
       </c>
       <c r="G2">
-        <v>0.0008194733792321951</v>
+        <v>0.3036200595253149</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002472182669552847</v>
       </c>
       <c r="J2">
-        <v>0.07234001756131825</v>
+        <v>0.2865849021683573</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2773089806251274</v>
       </c>
       <c r="L2">
-        <v>0.1823125291594323</v>
+        <v>0.07597986496118203</v>
       </c>
       <c r="M2">
-        <v>0.448616283310777</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2037468128141384</v>
       </c>
       <c r="O2">
-        <v>2.185867545468028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.4618754888358865</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.19147935878793</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.25113016610419</v>
+        <v>2.264349466007218</v>
       </c>
       <c r="C3">
-        <v>0.3672954467751595</v>
+        <v>0.4476029960248695</v>
       </c>
       <c r="D3">
-        <v>0.04669776508154655</v>
+        <v>0.07667017936292098</v>
       </c>
       <c r="E3">
-        <v>0.04561278760036958</v>
+        <v>0.05202132241963442</v>
       </c>
       <c r="F3">
-        <v>0.8155902390796754</v>
+        <v>0.508955096537143</v>
       </c>
       <c r="G3">
-        <v>0.0008241029987866577</v>
+        <v>0.3002144942852212</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0038531454961932</v>
       </c>
       <c r="J3">
-        <v>0.07479472734311621</v>
+        <v>0.2904846934100647</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2906149050408011</v>
       </c>
       <c r="L3">
-        <v>0.1652883771731553</v>
+        <v>0.07720341320281676</v>
       </c>
       <c r="M3">
-        <v>0.3924467491410795</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1847916223053403</v>
       </c>
       <c r="O3">
-        <v>2.168827825521646</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4034704527861805</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.192090114612697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.046098475365682</v>
+        <v>2.058755460891234</v>
       </c>
       <c r="C4">
-        <v>0.3442324910015486</v>
+        <v>0.4200272261540476</v>
       </c>
       <c r="D4">
-        <v>0.04508835318223348</v>
+        <v>0.07447151188829082</v>
       </c>
       <c r="E4">
-        <v>0.04647364121921083</v>
+        <v>0.05301183948361832</v>
       </c>
       <c r="F4">
-        <v>0.811226515488876</v>
+        <v>0.5076035570577204</v>
       </c>
       <c r="G4">
-        <v>0.0008270394320290552</v>
+        <v>0.2987184386295141</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.004948937563682421</v>
       </c>
       <c r="J4">
-        <v>0.07637138204609428</v>
+        <v>0.2932738565949151</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2992833533983372</v>
       </c>
       <c r="L4">
-        <v>0.1549475941228806</v>
+        <v>0.07800948059646196</v>
       </c>
       <c r="M4">
-        <v>0.3581038379216963</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1733468806178848</v>
       </c>
       <c r="O4">
-        <v>2.163820731290457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.3676298334808408</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.194543947785746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.962667244409317</v>
+        <v>1.974793766539676</v>
       </c>
       <c r="C5">
-        <v>0.3348336864800388</v>
+        <v>0.4094699546784568</v>
       </c>
       <c r="D5">
-        <v>0.04443984368848319</v>
+        <v>0.07360607233650285</v>
       </c>
       <c r="E5">
-        <v>0.0468354255394261</v>
+        <v>0.05341621391771767</v>
       </c>
       <c r="F5">
-        <v>0.8098940876069989</v>
+        <v>0.5068461530475616</v>
       </c>
       <c r="G5">
-        <v>0.0008282601039736455</v>
+        <v>0.2979071432288194</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.005532895812097038</v>
       </c>
       <c r="J5">
-        <v>0.07703116705056345</v>
+        <v>0.2943255226158712</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3027161050898357</v>
       </c>
       <c r="L5">
-        <v>0.1507596875895345</v>
+        <v>0.07836727707940128</v>
       </c>
       <c r="M5">
-        <v>0.3441395110958538</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.16889508685734</v>
       </c>
       <c r="O5">
-        <v>2.163090705067759</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.3531178363197967</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.194936106284558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.94881990945629</v>
+        <v>1.960742126298442</v>
       </c>
       <c r="C6">
-        <v>0.3332729097669045</v>
+        <v>0.4085025594889373</v>
       </c>
       <c r="D6">
-        <v>0.04433259290658143</v>
+        <v>0.0734790844276958</v>
       </c>
       <c r="E6">
-        <v>0.04689615980904804</v>
+        <v>0.05347043639581717</v>
       </c>
       <c r="F6">
-        <v>0.8096991979989028</v>
+        <v>0.5062407880584061</v>
       </c>
       <c r="G6">
-        <v>0.0008284642614368459</v>
+        <v>0.2973594535858055</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00573585943281163</v>
       </c>
       <c r="J6">
-        <v>0.07714176279800711</v>
+        <v>0.2942841590472867</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3030232339254919</v>
       </c>
       <c r="L6">
-        <v>0.1500658017850753</v>
+        <v>0.07844694553581277</v>
       </c>
       <c r="M6">
-        <v>0.3418224340966134</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1683615321776557</v>
       </c>
       <c r="O6">
-        <v>2.163046894777381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.3508194831445195</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.193673068446159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.044972846172755</v>
+        <v>2.057338010383262</v>
       </c>
       <c r="C7">
-        <v>0.3441057411601918</v>
+        <v>0.4220316112172497</v>
       </c>
       <c r="D7">
-        <v>0.04507957787514627</v>
+        <v>0.07450252814704328</v>
       </c>
       <c r="E7">
-        <v>0.04647847604361566</v>
+        <v>0.05298037820351498</v>
       </c>
       <c r="F7">
-        <v>0.8112067665570351</v>
+        <v>0.5062527480427192</v>
       </c>
       <c r="G7">
-        <v>0.0008270557964313898</v>
+        <v>0.2975568242040652</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.005219982388450894</v>
       </c>
       <c r="J7">
-        <v>0.07638021037816323</v>
+        <v>0.2926834655319084</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2985947992076188</v>
       </c>
       <c r="L7">
-        <v>0.1548910118314026</v>
+        <v>0.07806851651127467</v>
       </c>
       <c r="M7">
-        <v>0.357915393367719</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1738410626280995</v>
       </c>
       <c r="O7">
-        <v>2.16380565893985</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3677382107719538</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.19084328464794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.470425243277248</v>
+        <v>2.483055570506679</v>
       </c>
       <c r="C8">
-        <v>0.3919126707035616</v>
+        <v>0.4800639471511943</v>
       </c>
       <c r="D8">
-        <v>0.04844119482420695</v>
+        <v>0.07913496890388672</v>
       </c>
       <c r="E8">
-        <v>0.04473198918063881</v>
+        <v>0.05095829882927649</v>
       </c>
       <c r="F8">
-        <v>0.8218268920313747</v>
+        <v>0.5093202430342672</v>
       </c>
       <c r="G8">
-        <v>0.0008210504807057984</v>
+        <v>0.3008029333347864</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003209357701578597</v>
       </c>
       <c r="J8">
-        <v>0.07317187598819341</v>
+        <v>0.2870534582005249</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.280837956945641</v>
       </c>
       <c r="L8">
-        <v>0.1764179949498939</v>
+        <v>0.0764674247532362</v>
       </c>
       <c r="M8">
-        <v>0.4292151785899208</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1979048062279531</v>
       </c>
       <c r="O8">
-        <v>2.178822033431146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.4421347887328295</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.186373847615201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.311277814192522</v>
+        <v>3.316365553149637</v>
       </c>
       <c r="C9">
-        <v>0.4858959280107342</v>
+        <v>0.5916112830048519</v>
       </c>
       <c r="D9">
-        <v>0.05529243448423671</v>
+        <v>0.08874116265690901</v>
       </c>
       <c r="E9">
-        <v>0.04166141798095024</v>
+        <v>0.04744092784839182</v>
       </c>
       <c r="F9">
-        <v>0.8583148776969338</v>
+        <v>0.5244279864087744</v>
       </c>
       <c r="G9">
-        <v>0.0008099966011429881</v>
+        <v>0.3142389295528076</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0009688122091846552</v>
       </c>
       <c r="J9">
-        <v>0.06743985923599105</v>
+        <v>0.2803434783287315</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2514172901367981</v>
       </c>
       <c r="L9">
-        <v>0.2196275062542981</v>
+        <v>0.07366566029016397</v>
       </c>
       <c r="M9">
-        <v>0.5704785513323145</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2457487858366534</v>
       </c>
       <c r="O9">
-        <v>2.254493554155431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.5877767139048231</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.201596472374831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.935591715992302</v>
+        <v>3.928168497581851</v>
       </c>
       <c r="C10">
-        <v>0.5553251477908816</v>
+        <v>0.6760054447186974</v>
       </c>
       <c r="D10">
-        <v>0.06050968680240487</v>
+        <v>0.09621941858494409</v>
       </c>
       <c r="E10">
-        <v>0.03962811586526627</v>
+        <v>0.04508292271584446</v>
       </c>
       <c r="F10">
-        <v>0.8960956261616388</v>
+        <v>0.5394508054964717</v>
       </c>
       <c r="G10">
-        <v>0.000802283215269028</v>
+        <v>0.3270533689845863</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0009188491538729693</v>
       </c>
       <c r="J10">
-        <v>0.06358197349308981</v>
+        <v>0.2773014378035938</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.232209192013876</v>
       </c>
       <c r="L10">
-        <v>0.2521406182018637</v>
+        <v>0.07192629570648812</v>
       </c>
       <c r="M10">
-        <v>0.6755899606826645</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2823505034879616</v>
       </c>
       <c r="O10">
-        <v>2.34262915628301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.6953231967396647</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.222930649418387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.221648724824888</v>
+        <v>4.206155091225241</v>
       </c>
       <c r="C11">
-        <v>0.587050974769312</v>
+        <v>0.7184795946731697</v>
       </c>
       <c r="D11">
-        <v>0.06292927115585201</v>
+        <v>0.09978632572794055</v>
       </c>
       <c r="E11">
-        <v>0.03875301929119068</v>
+        <v>0.04401244962333362</v>
       </c>
       <c r="F11">
-        <v>0.916007420020037</v>
+        <v>0.5452501404801993</v>
       </c>
       <c r="G11">
-        <v>0.0007988550491771033</v>
+        <v>0.3319054102915615</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001649066518856657</v>
       </c>
       <c r="J11">
-        <v>0.06190663382934858</v>
+        <v>0.2754835398238669</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2230223080196652</v>
       </c>
       <c r="L11">
-        <v>0.2671370642592592</v>
+        <v>0.071315851026716</v>
       </c>
       <c r="M11">
-        <v>0.7238035855576399</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3002141536816652</v>
       </c>
       <c r="O11">
-        <v>2.390836903067594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7448856017725305</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.229646130478841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.330321487220203</v>
+        <v>4.311739263907555</v>
       </c>
       <c r="C12">
-        <v>0.5990903377146708</v>
+        <v>0.7326589819825244</v>
       </c>
       <c r="D12">
-        <v>0.06385270908646845</v>
+        <v>0.1011140939504216</v>
       </c>
       <c r="E12">
-        <v>0.038428955328349</v>
+        <v>0.04364335118226403</v>
       </c>
       <c r="F12">
-        <v>0.9239702363680209</v>
+        <v>0.5487575839760055</v>
       </c>
       <c r="G12">
-        <v>0.0007975678152920475</v>
+        <v>0.3348583641092304</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001776341816968952</v>
       </c>
       <c r="J12">
-        <v>0.06128395429931111</v>
+        <v>0.2753820552883539</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2202341263712384</v>
       </c>
       <c r="L12">
-        <v>0.2728489130339824</v>
+        <v>0.07103482883902856</v>
       </c>
       <c r="M12">
-        <v>0.7421276442022133</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.3065368111415836</v>
       </c>
       <c r="O12">
-        <v>2.410353555245109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7634116757390288</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.235781893854494</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.306900427338576</v>
+        <v>4.289052376067502</v>
       </c>
       <c r="C13">
-        <v>0.5964962271784771</v>
+        <v>0.7292050387902407</v>
       </c>
       <c r="D13">
-        <v>0.06365350107584788</v>
+        <v>0.100819985207842</v>
       </c>
       <c r="E13">
-        <v>0.03849842049544971</v>
+        <v>0.04372809612312212</v>
       </c>
       <c r="F13">
-        <v>0.9222359880468787</v>
+        <v>0.5482236888032403</v>
       </c>
       <c r="G13">
-        <v>0.0007978445687778584</v>
+        <v>0.3344133359563131</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001702513271960804</v>
       </c>
       <c r="J13">
-        <v>0.06141753279047357</v>
+        <v>0.2755022468090687</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2209480004748645</v>
       </c>
       <c r="L13">
-        <v>0.2716172387488598</v>
+        <v>0.07108264680831766</v>
       </c>
       <c r="M13">
-        <v>0.7381781102777794</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.3050747309671777</v>
       </c>
       <c r="O13">
-        <v>2.406092606790224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.7593670435551729</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.23507120112518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.230581975627842</v>
+        <v>4.214863799558771</v>
       </c>
       <c r="C14">
-        <v>0.5880409192675415</v>
+        <v>0.7194762065232396</v>
       </c>
       <c r="D14">
-        <v>0.0630050954853516</v>
+        <v>0.09989208369925962</v>
       </c>
       <c r="E14">
-        <v>0.03872621086032257</v>
+        <v>0.04398431256521951</v>
       </c>
       <c r="F14">
-        <v>0.9166538703023264</v>
+        <v>0.5456326411721122</v>
       </c>
       <c r="G14">
-        <v>0.0007987489324591589</v>
+        <v>0.3322293412853909</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001639422810750801</v>
       </c>
       <c r="J14">
-        <v>0.06185516871229346</v>
+        <v>0.2755169046643147</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2228410438052197</v>
       </c>
       <c r="L14">
-        <v>0.2676062993444219</v>
+        <v>0.07128734195281616</v>
       </c>
       <c r="M14">
-        <v>0.7253097255038838</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.3006916309881831</v>
       </c>
       <c r="O14">
-        <v>2.392416700634413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.7463864867307208</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.230409990393227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.183881869667971</v>
+        <v>4.169320152826799</v>
       </c>
       <c r="C15">
-        <v>0.5828652745848331</v>
+        <v>0.7143066874016313</v>
       </c>
       <c r="D15">
-        <v>0.06260888216779392</v>
+        <v>0.09934038004420387</v>
       </c>
       <c r="E15">
-        <v>0.03886669629370543</v>
+        <v>0.04413119606421345</v>
       </c>
       <c r="F15">
-        <v>0.9132906580135227</v>
+        <v>0.5436164200886324</v>
       </c>
       <c r="G15">
-        <v>0.0007993042852650642</v>
+        <v>0.3305212231033892</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001699088023057627</v>
       </c>
       <c r="J15">
-        <v>0.06212477043293596</v>
+        <v>0.2753354040579339</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2237811474912252</v>
       </c>
       <c r="L15">
-        <v>0.2651538885330069</v>
+        <v>0.0714380065788216</v>
       </c>
       <c r="M15">
-        <v>0.7174364339529902</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.2982064915647129</v>
       </c>
       <c r="O15">
-        <v>2.384207021867752</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.7385442891630731</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.226370699183761</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.91694304562418</v>
+        <v>3.909105637207688</v>
       </c>
       <c r="C16">
-        <v>0.5532550715136324</v>
+        <v>0.6797926810024819</v>
       </c>
       <c r="D16">
-        <v>0.06035253719930722</v>
+        <v>0.09611273232279416</v>
       </c>
       <c r="E16">
-        <v>0.03968632112338222</v>
+        <v>0.04505938824988176</v>
       </c>
       <c r="F16">
-        <v>0.8948517581074071</v>
+        <v>0.5352810626315332</v>
       </c>
       <c r="G16">
-        <v>0.0008025088219406275</v>
+        <v>0.323475667661242</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001595170525723333</v>
       </c>
       <c r="J16">
-        <v>0.06369308709158972</v>
+        <v>0.2757327257119684</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2308462430059759</v>
       </c>
       <c r="L16">
-        <v>0.2511649952741948</v>
+        <v>0.07216609670904006</v>
       </c>
       <c r="M16">
-        <v>0.6724478789419877</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2828178805348216</v>
       </c>
       <c r="O16">
-        <v>2.339649867932735</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.6929760240743548</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.212045515189629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.753747638481343</v>
+        <v>3.749539383131662</v>
       </c>
       <c r="C17">
-        <v>0.5351300250735278</v>
+        <v>0.658685358341387</v>
       </c>
       <c r="D17">
-        <v>0.05898055781667466</v>
+        <v>0.09415691270051241</v>
       </c>
       <c r="E17">
-        <v>0.04020200652980987</v>
+        <v>0.04564309978168568</v>
       </c>
       <c r="F17">
-        <v>0.8842592324166958</v>
+        <v>0.5304741062247373</v>
       </c>
       <c r="G17">
-        <v>0.0008044949099338317</v>
+        <v>0.3193952575833521</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001634813490754894</v>
       </c>
       <c r="J17">
-        <v>0.06467578979708932</v>
+        <v>0.276118636411276</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2353580250524772</v>
       </c>
       <c r="L17">
-        <v>0.242638367826018</v>
+        <v>0.07262837502815778</v>
       </c>
       <c r="M17">
-        <v>0.644957213424604</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2734480782926454</v>
       </c>
       <c r="O17">
-        <v>2.314458808523653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6650557023449153</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.204065516133326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.660071758490119</v>
+        <v>3.658049644787866</v>
       </c>
       <c r="C18">
-        <v>0.5247180281051556</v>
+        <v>0.6445833730814741</v>
       </c>
       <c r="D18">
-        <v>0.058195747686554</v>
+        <v>0.09300294902463691</v>
       </c>
       <c r="E18">
-        <v>0.04050329921648643</v>
+        <v>0.04601290193385266</v>
       </c>
       <c r="F18">
-        <v>0.8784212178346706</v>
+        <v>0.5289731789948533</v>
       </c>
       <c r="G18">
-        <v>0.0008056448927249723</v>
+        <v>0.3181258150433308</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001437866840119817</v>
       </c>
       <c r="J18">
-        <v>0.06524849148329714</v>
+        <v>0.2769061050683348</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2386150682567276</v>
       </c>
       <c r="L18">
-        <v>0.2377532550005981</v>
+        <v>0.0728403097113528</v>
       </c>
       <c r="M18">
-        <v>0.6291821575885805</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.2675900680317085</v>
       </c>
       <c r="O18">
-        <v>2.300727263813826</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.64873875454753</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.202943274161697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.628385743010654</v>
+        <v>3.626866981511569</v>
       </c>
       <c r="C19">
-        <v>0.5211947996433537</v>
+        <v>0.6413425942724587</v>
       </c>
       <c r="D19">
-        <v>0.05793074984617874</v>
+        <v>0.09264280670571878</v>
       </c>
       <c r="E19">
-        <v>0.04060611193484931</v>
+        <v>0.04611674062196602</v>
       </c>
       <c r="F19">
-        <v>0.8764873816277117</v>
+        <v>0.5275928107113401</v>
       </c>
       <c r="G19">
-        <v>0.0008060355884145351</v>
+        <v>0.3169454100709785</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001571674675520995</v>
       </c>
       <c r="J19">
-        <v>0.06544367431379605</v>
+        <v>0.2767844195370373</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2392669195430575</v>
       </c>
       <c r="L19">
-        <v>0.2361024346659093</v>
+        <v>0.07295901784206471</v>
       </c>
       <c r="M19">
-        <v>0.6238470497720172</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2659915899690759</v>
       </c>
       <c r="O19">
-        <v>2.296205368571691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6434236210322126</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.200158761853103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.771100048035521</v>
+        <v>3.766544695451387</v>
       </c>
       <c r="C20">
-        <v>0.5370580814024493</v>
+        <v>0.6607738353820594</v>
       </c>
       <c r="D20">
-        <v>0.05912615684881217</v>
+        <v>0.09436124672046731</v>
       </c>
       <c r="E20">
-        <v>0.040146625124585</v>
+        <v>0.04558267694181373</v>
       </c>
       <c r="F20">
-        <v>0.8853602669026372</v>
+        <v>0.5310649524937432</v>
       </c>
       <c r="G20">
-        <v>0.0008042827016539342</v>
+        <v>0.3198984239827993</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001606452097728805</v>
       </c>
       <c r="J20">
-        <v>0.06457040357593691</v>
+        <v>0.2761125808212626</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2349179029625734</v>
       </c>
       <c r="L20">
-        <v>0.243544033364671</v>
+        <v>0.07257385791170456</v>
       </c>
       <c r="M20">
-        <v>0.6478797625266637</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2744041317183843</v>
       </c>
       <c r="O20">
-        <v>2.31706136033543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.6680055285275373</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.205134287331916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.252988626446665</v>
+        <v>4.236345821539658</v>
       </c>
       <c r="C21">
-        <v>0.5905237142278281</v>
+        <v>0.7245629579836361</v>
       </c>
       <c r="D21">
-        <v>0.06319534810860006</v>
+        <v>0.1002063318451434</v>
       </c>
       <c r="E21">
-        <v>0.03865910354378599</v>
+        <v>0.04387736237865258</v>
       </c>
       <c r="F21">
-        <v>0.918281745745702</v>
+        <v>0.5451040400965397</v>
       </c>
       <c r="G21">
-        <v>0.0007984830076199677</v>
+        <v>0.3317627158938521</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001914676195430509</v>
       </c>
       <c r="J21">
-        <v>0.06172630356924103</v>
+        <v>0.2749391489531945</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2216221658378821</v>
       </c>
       <c r="L21">
-        <v>0.2687834849604798</v>
+        <v>0.07129582028754911</v>
       </c>
       <c r="M21">
-        <v>0.7290875957530645</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3025294232625981</v>
       </c>
       <c r="O21">
-        <v>2.396398620257713</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.7504990923030377</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.228229202720087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.569994259915632</v>
+        <v>4.54407593076769</v>
       </c>
       <c r="C22">
-        <v>0.625617782235679</v>
+        <v>0.7636553441545288</v>
       </c>
       <c r="D22">
-        <v>0.065897017832107</v>
+        <v>0.1040549446229662</v>
       </c>
       <c r="E22">
-        <v>0.03772964042172955</v>
+        <v>0.04285025341998905</v>
       </c>
       <c r="F22">
-        <v>0.9422774224514114</v>
+        <v>0.5569561775385523</v>
       </c>
       <c r="G22">
-        <v>0.0007947559849769598</v>
+        <v>0.3417487154356706</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002136579329484078</v>
       </c>
       <c r="J22">
-        <v>0.05993606960639042</v>
+        <v>0.2753796623369595</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2143720151921578</v>
       </c>
       <c r="L22">
-        <v>0.2854731648936735</v>
+        <v>0.07042513576801213</v>
       </c>
       <c r="M22">
-        <v>0.7825547593394759</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3204537987357838</v>
       </c>
       <c r="O22">
-        <v>2.45565204227637</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.8041603755756199</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.250575680144038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.400594576147796</v>
+        <v>4.38017263993612</v>
       </c>
       <c r="C23">
-        <v>0.606871800702919</v>
+        <v>0.7400790487260451</v>
       </c>
       <c r="D23">
-        <v>0.06445103045333411</v>
+        <v>0.10194242631691</v>
       </c>
       <c r="E23">
-        <v>0.03822175307800935</v>
+        <v>0.04343189344837706</v>
       </c>
       <c r="F23">
-        <v>0.9292327903211515</v>
+        <v>0.5520801753953108</v>
       </c>
       <c r="G23">
-        <v>0.0007967395972055881</v>
+        <v>0.3376714865809589</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001691139568795741</v>
       </c>
       <c r="J23">
-        <v>0.06088517917985392</v>
+        <v>0.2757874661542701</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2189806744484599</v>
       </c>
       <c r="L23">
-        <v>0.2765466039477644</v>
+        <v>0.07080180172459194</v>
       </c>
       <c r="M23">
-        <v>0.7539790485100895</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3101993086449397</v>
       </c>
       <c r="O23">
-        <v>2.423316866921084</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.7751449822123462</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.242651039158233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.763254568785555</v>
+        <v>3.759430525368259</v>
       </c>
       <c r="C24">
-        <v>0.5361863815544723</v>
+        <v>0.6556316012741945</v>
       </c>
       <c r="D24">
-        <v>0.05906031923527166</v>
+        <v>0.09418904107384662</v>
       </c>
       <c r="E24">
-        <v>0.04017164806094486</v>
+        <v>0.0456709247931113</v>
       </c>
       <c r="F24">
-        <v>0.8848617073044664</v>
+        <v>0.5332419355158535</v>
       </c>
       <c r="G24">
-        <v>0.0008043786155508096</v>
+        <v>0.3217711565652195</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001117795854094439</v>
       </c>
       <c r="J24">
-        <v>0.06461802462188615</v>
+        <v>0.2772042878462528</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2363844491533325</v>
       </c>
       <c r="L24">
-        <v>0.2431345294044576</v>
+        <v>0.07247206182095134</v>
       </c>
       <c r="M24">
-        <v>0.6465583862877224</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2729276355975401</v>
       </c>
       <c r="O24">
-        <v>2.315882414118704</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.6661021951248571</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.211383871488906</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.082852880405312</v>
+        <v>3.090511795175644</v>
       </c>
       <c r="C25">
-        <v>0.460422620457166</v>
+        <v>0.5652389388160941</v>
       </c>
       <c r="D25">
-        <v>0.0534087187167529</v>
+        <v>0.08615231377051913</v>
       </c>
       <c r="E25">
-        <v>0.04245349458222636</v>
+        <v>0.04828900217733167</v>
       </c>
       <c r="F25">
-        <v>0.8466259820700799</v>
+        <v>0.5171823999011664</v>
       </c>
       <c r="G25">
-        <v>0.000812912861502881</v>
+        <v>0.307966578832044</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001768927341621485</v>
       </c>
       <c r="J25">
-        <v>0.06892940482875076</v>
+        <v>0.2807209393523777</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2576466581495627</v>
       </c>
       <c r="L25">
-        <v>0.2078157985549751</v>
+        <v>0.07448961156513789</v>
       </c>
       <c r="M25">
-        <v>0.5320645357250768</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2336220764906614</v>
       </c>
       <c r="O25">
-        <v>2.228642000014986</v>
+        <v>0.5488765243156166</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.188883206532083</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_41/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_41/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.598645831239821</v>
+        <v>2.603241934953019</v>
       </c>
       <c r="C2">
-        <v>0.4928120583888074</v>
+        <v>0.4943602646603154</v>
       </c>
       <c r="D2">
-        <v>0.08036912480449132</v>
+        <v>0.08058595621730547</v>
       </c>
       <c r="E2">
-        <v>0.05048601424111743</v>
+        <v>0.04865117872496594</v>
       </c>
       <c r="F2">
-        <v>0.5124656685607931</v>
+        <v>0.4909842887517897</v>
       </c>
       <c r="G2">
-        <v>0.3036200595253149</v>
+        <v>0.26978278858968</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.002472182669552847</v>
+        <v>0.00178233058520938</v>
       </c>
       <c r="J2">
-        <v>0.2865849021683573</v>
+        <v>0.3073635030258401</v>
       </c>
       <c r="K2">
-        <v>0.2773089806251274</v>
+        <v>0.2571161220052556</v>
       </c>
       <c r="L2">
-        <v>0.07597986496118203</v>
+        <v>0.1301982935567008</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.06874947645810803</v>
       </c>
       <c r="N2">
-        <v>0.2037468128141384</v>
+        <v>0.07343763815404536</v>
       </c>
       <c r="O2">
-        <v>0.4618754888358865</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2116914850390543</v>
       </c>
       <c r="Q2">
-        <v>1.19147935878793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4651588932330242</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.132521445180615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.264349466007218</v>
+        <v>2.269675074711927</v>
       </c>
       <c r="C3">
-        <v>0.4476029960248695</v>
+        <v>0.4423341079208569</v>
       </c>
       <c r="D3">
-        <v>0.07667017936292098</v>
+        <v>0.07687536997678279</v>
       </c>
       <c r="E3">
-        <v>0.05202132241963442</v>
+        <v>0.0501762765248035</v>
       </c>
       <c r="F3">
-        <v>0.508955096537143</v>
+        <v>0.4886737916594655</v>
       </c>
       <c r="G3">
-        <v>0.3002144942852212</v>
+        <v>0.2683650172755208</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0038531454961932</v>
+        <v>0.002753257240286633</v>
       </c>
       <c r="J3">
-        <v>0.2904846934100647</v>
+        <v>0.3090160601399106</v>
       </c>
       <c r="K3">
-        <v>0.2906149050408011</v>
+        <v>0.2698576322072803</v>
       </c>
       <c r="L3">
-        <v>0.07720341320281676</v>
+        <v>0.1365311224214523</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.07326972178711877</v>
       </c>
       <c r="N3">
-        <v>0.1847916223053403</v>
+        <v>0.0742040275662621</v>
       </c>
       <c r="O3">
-        <v>0.4034704527861805</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1916524477285861</v>
       </c>
       <c r="Q3">
-        <v>1.192090114612697</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4058689880092601</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.136000655661832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.058755460891234</v>
+        <v>2.064414161386082</v>
       </c>
       <c r="C4">
-        <v>0.4200272261540476</v>
+        <v>0.4107085111473623</v>
       </c>
       <c r="D4">
-        <v>0.07447151188829082</v>
+        <v>0.07467511679079308</v>
       </c>
       <c r="E4">
-        <v>0.05301183948361832</v>
+        <v>0.05115882547299311</v>
       </c>
       <c r="F4">
-        <v>0.5076035570577204</v>
+        <v>0.4879127964255545</v>
       </c>
       <c r="G4">
-        <v>0.2987184386295141</v>
+        <v>0.2680797692803836</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.004948937563682421</v>
+        <v>0.003555524507698138</v>
       </c>
       <c r="J4">
-        <v>0.2932738565949151</v>
+        <v>0.3102108088042783</v>
       </c>
       <c r="K4">
-        <v>0.2992833533983372</v>
+        <v>0.2780869982332543</v>
       </c>
       <c r="L4">
-        <v>0.07800948059646196</v>
+        <v>0.1406667390252352</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.07661502833121991</v>
       </c>
       <c r="N4">
-        <v>0.1733468806178848</v>
+        <v>0.07473149695157311</v>
       </c>
       <c r="O4">
-        <v>0.3676298334808408</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1795830734428421</v>
       </c>
       <c r="Q4">
-        <v>1.194543947785746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3694790542308652</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.139789963267361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.974793766539676</v>
+        <v>1.980561321148514</v>
       </c>
       <c r="C5">
-        <v>0.4094699546784568</v>
+        <v>0.3985418274863832</v>
       </c>
       <c r="D5">
-        <v>0.07360607233650285</v>
+        <v>0.07381036927048967</v>
       </c>
       <c r="E5">
-        <v>0.05341621391771767</v>
+        <v>0.0515601325026136</v>
       </c>
       <c r="F5">
-        <v>0.5068461530475616</v>
+        <v>0.4873714788189147</v>
       </c>
       <c r="G5">
-        <v>0.2979071432288194</v>
+        <v>0.2677745828764628</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.005532895812097038</v>
+        <v>0.004021822227625371</v>
       </c>
       <c r="J5">
-        <v>0.2943255226158712</v>
+        <v>0.310558069303184</v>
       </c>
       <c r="K5">
-        <v>0.3027161050898357</v>
+        <v>0.281331047263885</v>
       </c>
       <c r="L5">
-        <v>0.07836727707940128</v>
+        <v>0.1422897568678909</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.07808613282877586</v>
       </c>
       <c r="N5">
-        <v>0.16889508685734</v>
+        <v>0.07497751478483927</v>
       </c>
       <c r="O5">
-        <v>0.3531178363197967</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1748859874740916</v>
       </c>
       <c r="Q5">
-        <v>1.194936106284558</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3547409608238112</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.140656543462924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.960742126298442</v>
+        <v>1.966525513283557</v>
       </c>
       <c r="C6">
-        <v>0.4085025594889373</v>
+        <v>0.3973178149448984</v>
       </c>
       <c r="D6">
-        <v>0.0734790844276958</v>
+        <v>0.07368349957885556</v>
       </c>
       <c r="E6">
-        <v>0.05347043639581717</v>
+        <v>0.05161456411097287</v>
       </c>
       <c r="F6">
-        <v>0.5062407880584061</v>
+        <v>0.4868137727563138</v>
       </c>
       <c r="G6">
-        <v>0.2973594535858055</v>
+        <v>0.2673300443560223</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.00573585943281163</v>
+        <v>0.004220793774125653</v>
       </c>
       <c r="J6">
-        <v>0.2942841590472867</v>
+        <v>0.3103938694798387</v>
       </c>
       <c r="K6">
-        <v>0.3030232339254919</v>
+        <v>0.2816214816720706</v>
       </c>
       <c r="L6">
-        <v>0.07844694553581277</v>
+        <v>0.1424122096250482</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.07829751484860559</v>
       </c>
       <c r="N6">
-        <v>0.1683615321776557</v>
+        <v>0.07504016060379648</v>
       </c>
       <c r="O6">
-        <v>0.3508194831445195</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1743111054938851</v>
       </c>
       <c r="Q6">
-        <v>1.193673068446159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3524035079718288</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.139508537963664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.057338010383262</v>
+        <v>2.062978331009276</v>
       </c>
       <c r="C7">
-        <v>0.4220316112172497</v>
+        <v>0.4123559688504486</v>
       </c>
       <c r="D7">
-        <v>0.07450252814704328</v>
+        <v>0.07481466522744995</v>
       </c>
       <c r="E7">
-        <v>0.05298037820351498</v>
+        <v>0.05113254412603174</v>
       </c>
       <c r="F7">
-        <v>0.5062527480427192</v>
+        <v>0.4859171637652082</v>
       </c>
       <c r="G7">
-        <v>0.2975568242040652</v>
+        <v>0.2690766957617399</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.005219982388450894</v>
+        <v>0.003871241696749017</v>
       </c>
       <c r="J7">
-        <v>0.2926834655319084</v>
+        <v>0.3063407495031214</v>
       </c>
       <c r="K7">
-        <v>0.2985947992076188</v>
+        <v>0.2772027655825013</v>
       </c>
       <c r="L7">
-        <v>0.07806851651127467</v>
+        <v>0.1401523218089515</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.07646816740080276</v>
       </c>
       <c r="N7">
-        <v>0.1738410626280995</v>
+        <v>0.07478953744397288</v>
       </c>
       <c r="O7">
-        <v>0.3677382107719538</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.180062599696079</v>
       </c>
       <c r="Q7">
-        <v>1.19084328464794</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.369573079404887</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.134133823815219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.483055570506679</v>
+        <v>2.48786162383476</v>
       </c>
       <c r="C8">
-        <v>0.4800639471511943</v>
+        <v>0.4780716696811851</v>
       </c>
       <c r="D8">
-        <v>0.07913496890388672</v>
+        <v>0.07971068555485061</v>
       </c>
       <c r="E8">
-        <v>0.05095829882927649</v>
+        <v>0.04913464301378756</v>
       </c>
       <c r="F8">
-        <v>0.5093202430342672</v>
+        <v>0.4860775732669111</v>
       </c>
       <c r="G8">
-        <v>0.3008029333347864</v>
+        <v>0.2747521077023265</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.003209357701578597</v>
+        <v>0.002449804989312021</v>
       </c>
       <c r="J8">
-        <v>0.2870534582005249</v>
+        <v>0.2965432175253326</v>
       </c>
       <c r="K8">
-        <v>0.280837956945641</v>
+        <v>0.2597805398650976</v>
       </c>
       <c r="L8">
-        <v>0.0764674247532362</v>
+        <v>0.1314854974210071</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06978800540204499</v>
       </c>
       <c r="N8">
-        <v>0.1979048062279531</v>
+        <v>0.07376484231838276</v>
       </c>
       <c r="O8">
-        <v>0.4421347887328295</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2054337922016529</v>
       </c>
       <c r="Q8">
-        <v>1.186373847615201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4450822056237627</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.121827151738898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.316365553149637</v>
+        <v>3.318562291923627</v>
       </c>
       <c r="C9">
-        <v>0.5916112830048519</v>
+        <v>0.6070019042957711</v>
       </c>
       <c r="D9">
-        <v>0.08874116265690901</v>
+        <v>0.08948134373886774</v>
       </c>
       <c r="E9">
-        <v>0.04744092784839182</v>
+        <v>0.04563513333866354</v>
       </c>
       <c r="F9">
-        <v>0.5244279864087744</v>
+        <v>0.4966853949472707</v>
       </c>
       <c r="G9">
-        <v>0.3142389295528076</v>
+        <v>0.2850759791145094</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0009688122091846552</v>
+        <v>0.0009227809434442236</v>
       </c>
       <c r="J9">
-        <v>0.2803434783287315</v>
+        <v>0.2913434978344682</v>
       </c>
       <c r="K9">
-        <v>0.2514172901367981</v>
+        <v>0.2310150915310114</v>
       </c>
       <c r="L9">
-        <v>0.07366566029016397</v>
+        <v>0.1175617774673547</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.06174782789322997</v>
       </c>
       <c r="N9">
-        <v>0.2457487858366534</v>
+        <v>0.07211307960044344</v>
       </c>
       <c r="O9">
-        <v>0.5877767139048231</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2561980650322511</v>
       </c>
       <c r="Q9">
-        <v>1.201596472374831</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5928669397575987</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.1254447977078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.928168497581851</v>
+        <v>3.927487332516478</v>
       </c>
       <c r="C10">
-        <v>0.6760054447186974</v>
+        <v>0.7026664335272983</v>
       </c>
       <c r="D10">
-        <v>0.09621941858494409</v>
+        <v>0.09776578019990723</v>
       </c>
       <c r="E10">
-        <v>0.04508292271584446</v>
+        <v>0.0433066717573567</v>
       </c>
       <c r="F10">
-        <v>0.5394508054964717</v>
+        <v>0.5036891252488545</v>
       </c>
       <c r="G10">
-        <v>0.3270533689845863</v>
+        <v>0.30836757814523</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0009188491538729693</v>
+        <v>0.001163840063770571</v>
       </c>
       <c r="J10">
-        <v>0.2773014378035938</v>
+        <v>0.271108515065869</v>
       </c>
       <c r="K10">
-        <v>0.232209192013876</v>
+        <v>0.2106067401461971</v>
       </c>
       <c r="L10">
-        <v>0.07192629570648812</v>
+        <v>0.1080482543141734</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.05813368520337292</v>
       </c>
       <c r="N10">
-        <v>0.2823505034879616</v>
+        <v>0.0712280589680141</v>
       </c>
       <c r="O10">
-        <v>0.6953231967396647</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2950731561386988</v>
       </c>
       <c r="Q10">
-        <v>1.222930649418387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.701845506118751</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.124149812923164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.206155091225241</v>
+        <v>4.20368796266655</v>
       </c>
       <c r="C11">
-        <v>0.7184795946731697</v>
+        <v>0.7466085194452319</v>
       </c>
       <c r="D11">
-        <v>0.09978632572794055</v>
+        <v>0.1028978042326614</v>
       </c>
       <c r="E11">
-        <v>0.04401244962333362</v>
+        <v>0.04229884133249184</v>
       </c>
       <c r="F11">
-        <v>0.5452501404801993</v>
+        <v>0.4988647497923111</v>
       </c>
       <c r="G11">
-        <v>0.3319054102915615</v>
+        <v>0.341794409580757</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.001649066518856657</v>
+        <v>0.002030687933513242</v>
       </c>
       <c r="J11">
-        <v>0.2754835398238669</v>
+        <v>0.2359308309517658</v>
       </c>
       <c r="K11">
-        <v>0.2230223080196652</v>
+        <v>0.1988606926978438</v>
       </c>
       <c r="L11">
-        <v>0.071315851026716</v>
+        <v>0.1031004505883892</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.05576974642813859</v>
       </c>
       <c r="N11">
-        <v>0.3002141536816652</v>
+        <v>0.07102365313948766</v>
       </c>
       <c r="O11">
-        <v>0.7448856017725305</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3138823043093169</v>
       </c>
       <c r="Q11">
-        <v>1.229646130478841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7519117163635087</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.099756505974923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.311739263907555</v>
+        <v>4.308524280985694</v>
       </c>
       <c r="C12">
-        <v>0.7326589819825244</v>
+        <v>0.7608013013897619</v>
       </c>
       <c r="D12">
-        <v>0.1011140939504216</v>
+        <v>0.1049828374837674</v>
       </c>
       <c r="E12">
-        <v>0.04364335118226403</v>
+        <v>0.04195891159129861</v>
       </c>
       <c r="F12">
-        <v>0.5487575839760055</v>
+        <v>0.4973721556661701</v>
       </c>
       <c r="G12">
-        <v>0.3348583641092304</v>
+        <v>0.3591844980633994</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.001776341816968952</v>
+        <v>0.002153106157367191</v>
       </c>
       <c r="J12">
-        <v>0.2753820552883539</v>
+        <v>0.2218256336434408</v>
       </c>
       <c r="K12">
-        <v>0.2202341263712384</v>
+        <v>0.1947556120732852</v>
       </c>
       <c r="L12">
-        <v>0.07103482883902856</v>
+        <v>0.1013993838466662</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.05503843201785408</v>
       </c>
       <c r="N12">
-        <v>0.3065368111415836</v>
+        <v>0.07089082099541955</v>
       </c>
       <c r="O12">
-        <v>0.7634116757390288</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.3205472743060511</v>
       </c>
       <c r="Q12">
-        <v>1.235781893854494</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7706107703487461</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.091211208099239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.289052376067502</v>
+        <v>4.286000513221154</v>
       </c>
       <c r="C13">
-        <v>0.7292050387902407</v>
+        <v>0.7573552808345312</v>
       </c>
       <c r="D13">
-        <v>0.100819985207842</v>
+        <v>0.1045178527265307</v>
       </c>
       <c r="E13">
-        <v>0.04372809612312212</v>
+        <v>0.04203652824099802</v>
       </c>
       <c r="F13">
-        <v>0.5482236888032403</v>
+        <v>0.4979383585760715</v>
       </c>
       <c r="G13">
-        <v>0.3344133359563131</v>
+        <v>0.3554621117655046</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.001702513271960804</v>
+        <v>0.002071729807253675</v>
       </c>
       <c r="J13">
-        <v>0.2755022468090687</v>
+        <v>0.2249429448535238</v>
       </c>
       <c r="K13">
-        <v>0.2209480004748645</v>
+        <v>0.1957423753315553</v>
       </c>
       <c r="L13">
-        <v>0.07108264680831766</v>
+        <v>0.1017952330198417</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05524096625913621</v>
       </c>
       <c r="N13">
-        <v>0.3050747309671777</v>
+        <v>0.07090475584770317</v>
       </c>
       <c r="O13">
-        <v>0.7593670435551729</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.3190117774521184</v>
       </c>
       <c r="Q13">
-        <v>1.23507120112518</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7665304637445587</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.093722398643649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.214863799558771</v>
+        <v>4.212336114816651</v>
       </c>
       <c r="C14">
-        <v>0.7194762065232396</v>
+        <v>0.7476112118825711</v>
       </c>
       <c r="D14">
-        <v>0.09989208369925962</v>
+        <v>0.1030624005357197</v>
       </c>
       <c r="E14">
-        <v>0.04398431256521951</v>
+        <v>0.04227273145097454</v>
       </c>
       <c r="F14">
-        <v>0.5456326411721122</v>
+        <v>0.4988471646807326</v>
       </c>
       <c r="G14">
-        <v>0.3322293412853909</v>
+        <v>0.3432302557034177</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.001639422810750801</v>
+        <v>0.002016964251057018</v>
       </c>
       <c r="J14">
-        <v>0.2755169046643147</v>
+        <v>0.2348105534963665</v>
       </c>
       <c r="K14">
-        <v>0.2228410438052197</v>
+        <v>0.1985672885870553</v>
       </c>
       <c r="L14">
-        <v>0.07128734195281616</v>
+        <v>0.1029735072409057</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05572868248667362</v>
       </c>
       <c r="N14">
-        <v>0.3006916309881831</v>
+        <v>0.07100651447714412</v>
       </c>
       <c r="O14">
-        <v>0.7463864867307208</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.3143880889675614</v>
       </c>
       <c r="Q14">
-        <v>1.230409990393227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.7534275255453338</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.09934252170568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.169320152826799</v>
+        <v>4.167106435947346</v>
       </c>
       <c r="C15">
-        <v>0.7143066874016313</v>
+        <v>0.7423917334654959</v>
       </c>
       <c r="D15">
-        <v>0.09934038004420387</v>
+        <v>0.1022097895726759</v>
       </c>
       <c r="E15">
-        <v>0.04413119606421345</v>
+        <v>0.04240941940495802</v>
       </c>
       <c r="F15">
-        <v>0.5436164200886324</v>
+        <v>0.498886748087088</v>
       </c>
       <c r="G15">
-        <v>0.3305212231033892</v>
+        <v>0.335862902995629</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.001699088023057627</v>
+        <v>0.002098745631639254</v>
       </c>
       <c r="J15">
-        <v>0.2753354040579339</v>
+        <v>0.2406203806030831</v>
       </c>
       <c r="K15">
-        <v>0.2237811474912252</v>
+        <v>0.2000842376876317</v>
       </c>
       <c r="L15">
-        <v>0.0714380065788216</v>
+        <v>0.1036331894960592</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05593750261622965</v>
       </c>
       <c r="N15">
-        <v>0.2982064915647129</v>
+        <v>0.07109797704699972</v>
       </c>
       <c r="O15">
-        <v>0.7385442891630731</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.3117543616044287</v>
       </c>
       <c r="Q15">
-        <v>1.226370699183761</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.7455063644183184</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.101355591131224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.909105637207688</v>
+        <v>3.908544415694337</v>
       </c>
       <c r="C16">
-        <v>0.6797926810024819</v>
+        <v>0.7064966676901463</v>
       </c>
       <c r="D16">
-        <v>0.09611273232279416</v>
+        <v>0.09757854572708879</v>
       </c>
       <c r="E16">
-        <v>0.04505938824988176</v>
+        <v>0.04328849812742019</v>
       </c>
       <c r="F16">
-        <v>0.5352810626315332</v>
+        <v>0.5003192847738163</v>
       </c>
       <c r="G16">
-        <v>0.323475667661242</v>
+        <v>0.3034557301204472</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.001595170525723333</v>
+        <v>0.001975786890173303</v>
       </c>
       <c r="J16">
-        <v>0.2757327257119684</v>
+        <v>0.271692679102884</v>
       </c>
       <c r="K16">
-        <v>0.2308462430059759</v>
+        <v>0.2096651682632036</v>
       </c>
       <c r="L16">
-        <v>0.07216609670904006</v>
+        <v>0.107786242509607</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.05758790772885725</v>
       </c>
       <c r="N16">
-        <v>0.2828178805348216</v>
+        <v>0.07146888835563914</v>
       </c>
       <c r="O16">
-        <v>0.6929760240743548</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2954825614709193</v>
       </c>
       <c r="Q16">
-        <v>1.212045515189629</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.6994524153284019</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.115681937009143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.749539383131662</v>
+        <v>3.749873703953995</v>
       </c>
       <c r="C17">
-        <v>0.658685358341387</v>
+        <v>0.6837206765681856</v>
       </c>
       <c r="D17">
-        <v>0.09415691270051241</v>
+        <v>0.09503008218982245</v>
       </c>
       <c r="E17">
-        <v>0.04564309978168568</v>
+        <v>0.04385322528660307</v>
       </c>
       <c r="F17">
-        <v>0.5304741062247373</v>
+        <v>0.4999478014134269</v>
       </c>
       <c r="G17">
-        <v>0.3193952575833521</v>
+        <v>0.2893743077954483</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.001634813490754894</v>
+        <v>0.001981996249221574</v>
       </c>
       <c r="J17">
-        <v>0.276118636411276</v>
+        <v>0.286508203979551</v>
       </c>
       <c r="K17">
-        <v>0.2353580250524772</v>
+        <v>0.2152507528857388</v>
       </c>
       <c r="L17">
-        <v>0.07262837502815778</v>
+        <v>0.1102998652315534</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05854871083941582</v>
       </c>
       <c r="N17">
-        <v>0.2734480782926454</v>
+        <v>0.07171400825314578</v>
       </c>
       <c r="O17">
-        <v>0.6650557023449153</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.2855497507049733</v>
       </c>
       <c r="Q17">
-        <v>1.204065516133326</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6712000604890918</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.120647823422587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.658049644787866</v>
+        <v>3.658854147576392</v>
       </c>
       <c r="C18">
-        <v>0.6445833730814741</v>
+        <v>0.6683070115988414</v>
       </c>
       <c r="D18">
-        <v>0.09300294902463691</v>
+        <v>0.09362715535655752</v>
       </c>
       <c r="E18">
-        <v>0.04601290193385266</v>
+        <v>0.04421273165602813</v>
       </c>
       <c r="F18">
-        <v>0.5289731789948533</v>
+        <v>0.5003891246364987</v>
       </c>
       <c r="G18">
-        <v>0.3181258150433308</v>
+        <v>0.2841057062312302</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001437866840119817</v>
+        <v>0.001707288802526463</v>
       </c>
       <c r="J18">
-        <v>0.2769061050683348</v>
+        <v>0.2935157617590036</v>
       </c>
       <c r="K18">
-        <v>0.2386150682567276</v>
+        <v>0.2188786863460095</v>
       </c>
       <c r="L18">
-        <v>0.0728403097113528</v>
+        <v>0.1119188462780247</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05929264107015264</v>
       </c>
       <c r="N18">
-        <v>0.2675900680317085</v>
+        <v>0.07179340140543999</v>
       </c>
       <c r="O18">
-        <v>0.64873875454753</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2793598869521787</v>
       </c>
       <c r="Q18">
-        <v>1.202943274161697</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6546837735282196</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.125136917237413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.626866981511569</v>
+        <v>3.627826230867242</v>
       </c>
       <c r="C19">
-        <v>0.6413425942724587</v>
+        <v>0.6646223215392126</v>
       </c>
       <c r="D19">
-        <v>0.09264280670571878</v>
+        <v>0.09319771962978507</v>
       </c>
       <c r="E19">
-        <v>0.04611674062196602</v>
+        <v>0.04431566577247192</v>
       </c>
       <c r="F19">
-        <v>0.5275928107113401</v>
+        <v>0.4996200670065747</v>
       </c>
       <c r="G19">
-        <v>0.3169454100709785</v>
+        <v>0.2819020567887236</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.001571674675520995</v>
+        <v>0.001852717470836041</v>
       </c>
       <c r="J19">
-        <v>0.2767844195370373</v>
+        <v>0.295146139824503</v>
       </c>
       <c r="K19">
-        <v>0.2392669195430575</v>
+        <v>0.219685866370984</v>
       </c>
       <c r="L19">
-        <v>0.07295901784206471</v>
+        <v>0.1123140918847714</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.05938672448258586</v>
       </c>
       <c r="N19">
-        <v>0.2659915899690759</v>
+        <v>0.07187316294459478</v>
       </c>
       <c r="O19">
-        <v>0.6434236210322126</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2776491379561747</v>
       </c>
       <c r="Q19">
-        <v>1.200158761853103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6492968775825858</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.124122950484661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.766544695451387</v>
+        <v>3.766787781106018</v>
       </c>
       <c r="C20">
-        <v>0.6607738353820594</v>
+        <v>0.6860121001004131</v>
       </c>
       <c r="D20">
-        <v>0.09436124672046731</v>
+        <v>0.09528787170979314</v>
       </c>
       <c r="E20">
-        <v>0.04558267694181373</v>
+        <v>0.04379425615758104</v>
       </c>
       <c r="F20">
-        <v>0.5310649524937432</v>
+        <v>0.5001190406872027</v>
       </c>
       <c r="G20">
-        <v>0.3198984239827993</v>
+        <v>0.2907470651949353</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.001606452097728805</v>
+        <v>0.001953824978942365</v>
       </c>
       <c r="J20">
-        <v>0.2761125808212626</v>
+        <v>0.2851671754237231</v>
       </c>
       <c r="K20">
-        <v>0.2349179029625734</v>
+        <v>0.214707822914626</v>
       </c>
       <c r="L20">
-        <v>0.07257385791170456</v>
+        <v>0.1100488746339678</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.05846386079505095</v>
       </c>
       <c r="N20">
-        <v>0.2744041317183843</v>
+        <v>0.07168196706903629</v>
       </c>
       <c r="O20">
-        <v>0.6680055285275373</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2865663279507231</v>
       </c>
       <c r="Q20">
-        <v>1.205134287331916</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6741866895447899</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.120494413775219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.236345821539658</v>
+        <v>4.233584430482324</v>
       </c>
       <c r="C21">
-        <v>0.7245629579836361</v>
+        <v>0.7514023660127123</v>
       </c>
       <c r="D21">
-        <v>0.1002063318451434</v>
+        <v>0.1039517324216632</v>
       </c>
       <c r="E21">
-        <v>0.04387736237865258</v>
+        <v>0.04219104496678172</v>
       </c>
       <c r="F21">
-        <v>0.5451040400965397</v>
+        <v>0.4949765047008441</v>
       </c>
       <c r="G21">
-        <v>0.3317627158938521</v>
+        <v>0.354249916695025</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.001914676195430509</v>
+        <v>0.002340991319695007</v>
       </c>
       <c r="J21">
-        <v>0.2749391489531945</v>
+        <v>0.2236990486938311</v>
       </c>
       <c r="K21">
-        <v>0.2216221658378821</v>
+        <v>0.1964725204267168</v>
       </c>
       <c r="L21">
-        <v>0.07129582028754911</v>
+        <v>0.102223805311338</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0550248016407231</v>
       </c>
       <c r="N21">
-        <v>0.3025294232625981</v>
+        <v>0.07105448801975811</v>
       </c>
       <c r="O21">
-        <v>0.7504990923030377</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3162516442001504</v>
       </c>
       <c r="Q21">
-        <v>1.228229202720087</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7575333502307302</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.087271533168106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.54407593076769</v>
+        <v>4.539095038686696</v>
       </c>
       <c r="C22">
-        <v>0.7636553441545288</v>
+        <v>0.7909236722098285</v>
       </c>
       <c r="D22">
-        <v>0.1040549446229662</v>
+        <v>0.1099120113496994</v>
       </c>
       <c r="E22">
-        <v>0.04285025341998905</v>
+        <v>0.04124768173553184</v>
       </c>
       <c r="F22">
-        <v>0.5569561775385523</v>
+        <v>0.4928731395445212</v>
       </c>
       <c r="G22">
-        <v>0.3417487154356706</v>
+        <v>0.405482564578989</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.002136579329484078</v>
+        <v>0.002468419046502746</v>
       </c>
       <c r="J22">
-        <v>0.2753796623369595</v>
+        <v>0.1915021168746911</v>
       </c>
       <c r="K22">
-        <v>0.2143720151921578</v>
+        <v>0.1855202623873673</v>
       </c>
       <c r="L22">
-        <v>0.07042513576801213</v>
+        <v>0.09770733260438025</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.05336197047096292</v>
       </c>
       <c r="N22">
-        <v>0.3204537987357838</v>
+        <v>0.07061320140953953</v>
       </c>
       <c r="O22">
-        <v>0.8041603755756199</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3351876586127958</v>
       </c>
       <c r="Q22">
-        <v>1.250575680144038</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8117003620093186</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.068757653905791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.38017263993612</v>
+        <v>4.376451655257313</v>
       </c>
       <c r="C23">
-        <v>0.7400790487260451</v>
+        <v>0.7680463422904324</v>
       </c>
       <c r="D23">
-        <v>0.10194242631691</v>
+        <v>0.1063482686707928</v>
       </c>
       <c r="E23">
-        <v>0.04343189344837706</v>
+        <v>0.04176706350997605</v>
       </c>
       <c r="F23">
-        <v>0.5520801753953108</v>
+        <v>0.4971242675240433</v>
       </c>
       <c r="G23">
-        <v>0.3376714865809589</v>
+        <v>0.3725064907763169</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.001691139568795741</v>
+        <v>0.002021253312849858</v>
       </c>
       <c r="J23">
-        <v>0.2757874661542701</v>
+        <v>0.2129445239679555</v>
       </c>
       <c r="K23">
-        <v>0.2189806744484599</v>
+        <v>0.1924770342325175</v>
       </c>
       <c r="L23">
-        <v>0.07080180172459194</v>
+        <v>0.1004303671673679</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.05474065033765108</v>
       </c>
       <c r="N23">
-        <v>0.3101993086449397</v>
+        <v>0.0707463598676199</v>
       </c>
       <c r="O23">
-        <v>0.7751449822123462</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3244247940695857</v>
       </c>
       <c r="Q23">
-        <v>1.242651039158233</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7824524034556859</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.087562247076335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.759430525368259</v>
+        <v>3.759707760735807</v>
       </c>
       <c r="C24">
-        <v>0.6556316012741945</v>
+        <v>0.6806459305390717</v>
       </c>
       <c r="D24">
-        <v>0.09418904107384662</v>
+        <v>0.09509148914799681</v>
       </c>
       <c r="E24">
-        <v>0.0456709247931113</v>
+        <v>0.04387619847828317</v>
       </c>
       <c r="F24">
-        <v>0.5332419355158535</v>
+        <v>0.5023554650185247</v>
       </c>
       <c r="G24">
-        <v>0.3217711565652195</v>
+        <v>0.2921289175453623</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001117795854094439</v>
+        <v>0.001363891414875695</v>
       </c>
       <c r="J24">
-        <v>0.2772042878462528</v>
+        <v>0.2867716891976855</v>
       </c>
       <c r="K24">
-        <v>0.2363844491533325</v>
+        <v>0.2160526338413646</v>
       </c>
       <c r="L24">
-        <v>0.07247206182095134</v>
+        <v>0.1105597064357298</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.05893816929465423</v>
       </c>
       <c r="N24">
-        <v>0.2729276355975401</v>
+        <v>0.07155326053235811</v>
       </c>
       <c r="O24">
-        <v>0.6661021951248571</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2850592429037135</v>
       </c>
       <c r="Q24">
-        <v>1.211383871488906</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6722733332426927</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.126875478862303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.090511795175644</v>
+        <v>3.093579738448796</v>
       </c>
       <c r="C25">
-        <v>0.5652389388160941</v>
+        <v>0.5764494614215323</v>
       </c>
       <c r="D25">
-        <v>0.08615231377051913</v>
+        <v>0.08668508183097856</v>
       </c>
       <c r="E25">
-        <v>0.04828900217733167</v>
+        <v>0.0464797638596588</v>
       </c>
       <c r="F25">
-        <v>0.5171823999011664</v>
+        <v>0.4918715606339745</v>
       </c>
       <c r="G25">
-        <v>0.307966578832044</v>
+        <v>0.2767076006141025</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001768927341621485</v>
+        <v>0.001651889628548453</v>
       </c>
       <c r="J25">
-        <v>0.2807209393523777</v>
+        <v>0.295987518367177</v>
       </c>
       <c r="K25">
-        <v>0.2576466581495627</v>
+        <v>0.2376081016900731</v>
       </c>
       <c r="L25">
-        <v>0.07448961156513789</v>
+        <v>0.1207701943422848</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0631491673120026</v>
       </c>
       <c r="N25">
-        <v>0.2336220764906614</v>
+        <v>0.07264112423184166</v>
       </c>
       <c r="O25">
-        <v>0.5488765243156166</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2432630262256765</v>
       </c>
       <c r="Q25">
-        <v>1.188883206532083</v>
+        <v>0.5534049557135958</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.11954333501393</v>
       </c>
     </row>
   </sheetData>
